--- a/TestData/2.3 Harvesting.xlsx
+++ b/TestData/2.3 Harvesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\2.3\BalanceInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\File_Share\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Race</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>2.3 Players Patch build 9</t>
+  </si>
+  <si>
+    <t>HW1 pulls ahead on RU.</t>
+  </si>
+  <si>
+    <t>HW1 starts a bit behind on RU. HW1 Fighter/Corvette/Frigate research is purposely cheaper to compensate. (Cheap research is also needed in the early SP missions)</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1197,9 @@
       <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G33" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -1239,7 +1248,9 @@
       <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">

--- a/TestData/2.3 Harvesting.xlsx
+++ b/TestData/2.3 Harvesting.xlsx
@@ -118,9 +118,6 @@
     <t>Vaygr's extra collector puts them in contention.</t>
   </si>
   <si>
-    <t>Vaygr are finally even on collectors in this test, and also Vaygr refineries are worse than Hiig.</t>
-  </si>
-  <si>
     <t>Over-saturing is a really bad idea for HW1…</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>HW1 starts a bit behind on RU. HW1 Fighter/Corvette/Frigate research is purposely cheaper to compensate. (Cheap research is also needed in the early SP missions)</t>
+  </si>
+  <si>
+    <t>Vaygr are finally even on collectors in this test. Vaygr flagship is terrible at harvesting, and refineries are worse than Hiig. Its best to use all carriers to harvest.</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>43329</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>113250</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>160200</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
